--- a/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
+++ b/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\India\India_Model\InputData\io-model\WMITR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB03A1D3-7CE4-477A-9BB1-395FFD2DAC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F7F70A-EADA-4103-9159-DA113D71A7F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="8730" windowWidth="21375" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="435" windowWidth="16080" windowHeight="15420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="WMITR" sheetId="2" r:id="rId2"/>
+    <sheet name="Calcs" sheetId="3" r:id="rId2"/>
+    <sheet name="WMITR" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>Workers</t>
   </si>
@@ -35,26 +46,113 @@
     <t>Notes:</t>
   </si>
   <si>
+    <t>Income Tax Slab Rate For Men below 60 Years of Age</t>
+  </si>
+  <si>
+    <t>Income Tax Slab</t>
+  </si>
+  <si>
+    <t>Income Tax Rate</t>
+  </si>
+  <si>
+    <t>Income upto Rs. 2,50,000</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>Income between Rs. 2,50,001 - Rs. 500,000</t>
+  </si>
+  <si>
+    <t>5% of Income exceeding Rs. 2,50,000</t>
+  </si>
+  <si>
+    <t>Income between Rs. 500,001 - Rs. 10,00,000</t>
+  </si>
+  <si>
+    <t>20% of Income exceeding Rs. 5,00,000</t>
+  </si>
+  <si>
+    <t>Income above Rs. 10,00,000</t>
+  </si>
+  <si>
+    <t>30% of Income exceeding Rs. 10,00,000</t>
+  </si>
+  <si>
+    <t>Average Income</t>
+  </si>
+  <si>
+    <t>The World Bank</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/NY.GNP.PCAP.CD?name_desc=false</t>
+  </si>
+  <si>
+    <t>GNI per capita</t>
+  </si>
+  <si>
+    <t>Income Brackets</t>
+  </si>
+  <si>
+    <t>HDFC Life</t>
+  </si>
+  <si>
+    <t>so we use a value of zero.</t>
+  </si>
+  <si>
+    <t>GNI per capita (2018 USD)</t>
+  </si>
+  <si>
+    <t>2018 USD to INR</t>
+  </si>
+  <si>
+    <t>GNI per capita (2018 INR)</t>
+  </si>
+  <si>
+    <t>https://www.hdfclife.com/insurance-knowledge-centre/tax-saving-insurance/latest-income-tax-slab-and-deductions-fy-2018-19</t>
+  </si>
+  <si>
+    <t>Income Tax Slab Rate &amp; Deductions - FY 2018-19 (AY 2019-20)</t>
+  </si>
+  <si>
+    <t>Income Tax Slab Rate for Women below 60 Years of Age</t>
+  </si>
+  <si>
+    <t>Income upto Rs. 3,00,000</t>
+  </si>
+  <si>
+    <t>Income between Rs. 3,00,001 - Rs. 500,000</t>
+  </si>
+  <si>
+    <t>5% of Income exceeding Rs. 3,00,000</t>
+  </si>
+  <si>
+    <t>Income Tax Slab Rate For Senior Citizens below (&gt;80 years)</t>
+  </si>
+  <si>
+    <t>Income upto Rs. 5,00,000</t>
+  </si>
+  <si>
+    <t>Income Tax Slab Rate For Senior Citizens (60-80 years)</t>
+  </si>
+  <si>
+    <t>The average Indian individual makes less than than minimum level for income taxes,</t>
+  </si>
+  <si>
+    <t>Income tax slabs for Individuals are considered</t>
+  </si>
+  <si>
     <t>Marginal Income Tax Rate (dimensionless)</t>
-  </si>
-  <si>
-    <t>KPMG</t>
-  </si>
-  <si>
-    <t>https://home.kpmg/xx/en/home/services/tax/tax-tools-and-resources/tax-rates-online/individual-income-tax-rates-table.html</t>
-  </si>
-  <si>
-    <t>Individual Income tax rates</t>
-  </si>
-  <si>
-    <t>Individual income tax rates table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +176,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF05396E"/>
+      <name val="Source Sans Pro"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00000A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00000A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,23 +231,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -449,55 +618,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="55.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{3D977D6E-CC5B-4588-BFD9-9061CAE80A3C}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{1E93F76D-69D1-41E1-B875-2C9AA29A4818}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -506,13 +775,245 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>69.569999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="10">
+        <f>B2*B1</f>
+        <v>140531.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="F7:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,8 +1022,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>4</v>
+      <c r="B1" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -530,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4274</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
+++ b/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\io-model\WMITR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\io-model\WMITR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,14 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="WMITR" sheetId="2" r:id="rId2"/>
+    <sheet name="India Budget" sheetId="3" r:id="rId2"/>
+    <sheet name="WMITR" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Workers</t>
   </si>
@@ -40,41 +41,41 @@
     <t>GNI per capita</t>
   </si>
   <si>
-    <t>The World Bank</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method</t>
-  </si>
-  <si>
-    <t>https://data.worldbank.org/indicator/NY.GNP.PCAP.CD?name_desc=false</t>
-  </si>
-  <si>
-    <t>Individual tax slabs</t>
-  </si>
-  <si>
-    <t>HDFC Life</t>
-  </si>
-  <si>
-    <t>Income Tax Slabs in India FY 2020-21</t>
-  </si>
-  <si>
-    <t>https://www.hdfclife.com/insurance-knowledge-centre/tax-saving-insurance/income-tax-slab-2020-21</t>
-  </si>
-  <si>
-    <t>The per capita GNI for India (representing average individual income) is less than the minimum tax slab</t>
-  </si>
-  <si>
-    <t>for which income tax applies across all individual categories, making the worker marginal income tax</t>
-  </si>
-  <si>
-    <t>rate effectively zero.</t>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Ministry of Finance</t>
+  </si>
+  <si>
+    <t>Union Budget</t>
+  </si>
+  <si>
+    <t>https://www.indiabudget.gov.in/doc/rec/tr.pdf</t>
+  </si>
+  <si>
+    <t>Receipt Budget</t>
+  </si>
+  <si>
+    <t>The WMITR value in the model is used to determine the total change in government revenue and labor/consumers revenue. We</t>
+  </si>
+  <si>
+    <t>use data on the share of the Government of India's revenue that is from wealth taxes here.</t>
+  </si>
+  <si>
+    <t>Total Tax Revenue (crores)</t>
+  </si>
+  <si>
+    <t>Total - Taxes on Income (crores)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +95,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,11 +130,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -137,10 +146,13 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -442,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -471,7 +483,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -482,63 +494,32 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>10</v>
+      <c r="A10" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>2020</v>
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
+      <c r="A12" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -548,6 +529,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="26.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6">
+        <v>559500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1504586.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <f>B1/B2</f>
+        <v>0.37186286072550162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
@@ -573,7 +597,8 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <f>'India Budget'!B4</f>
+        <v>0.37186286072550162</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
+++ b/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
@@ -13,15 +13,16 @@
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="India Budget" sheetId="3" r:id="rId2"/>
-    <sheet name="WMITR" sheetId="2" r:id="rId3"/>
+    <sheet name="OECD VAL" sheetId="4" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="3" r:id="rId3"/>
+    <sheet name="WMITR" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
   <si>
     <t>Workers</t>
   </si>
@@ -38,44 +39,234 @@
     <t>Marginal Income Tax Rate (dimensionless)</t>
   </si>
   <si>
-    <t>GNI per capita</t>
-  </si>
-  <si>
-    <t>Percent</t>
-  </si>
-  <si>
     <t>Ministry of Finance</t>
   </si>
   <si>
     <t>Union Budget</t>
   </si>
   <si>
-    <t>https://www.indiabudget.gov.in/doc/rec/tr.pdf</t>
-  </si>
-  <si>
-    <t>Receipt Budget</t>
-  </si>
-  <si>
-    <t>The WMITR value in the model is used to determine the total change in government revenue and labor/consumers revenue. We</t>
-  </si>
-  <si>
-    <t>use data on the share of the Government of India's revenue that is from wealth taxes here.</t>
-  </si>
-  <si>
-    <t>Total Tax Revenue (crores)</t>
-  </si>
-  <si>
-    <t>Total - Taxes on Income (crores)</t>
+    <t>Sorry, the query is too large to fit into the Excel cell. You will not be able to update your table with the .Stat Populator.</t>
+  </si>
+  <si>
+    <t>Dataset: Input-Output Tables 2018 edition</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>VAL: Value added</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>IND: India</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>US Dollar, Millions</t>
+  </si>
+  <si>
+    <t>To: (sector in column)</t>
+  </si>
+  <si>
+    <t>D01T03: Agriculture, forestry and fishing</t>
+  </si>
+  <si>
+    <t>D05T06: Mining and extraction of energy producing products</t>
+  </si>
+  <si>
+    <t>D07T08: Mining and quarrying of non-energy producing products</t>
+  </si>
+  <si>
+    <t>D09: Mining support service activities</t>
+  </si>
+  <si>
+    <t>D10T12: Food products, beverages and tobacco</t>
+  </si>
+  <si>
+    <t>D13T15: Textiles, wearing apparel, leather and related products</t>
+  </si>
+  <si>
+    <t>D16: Wood and products of wood and cork</t>
+  </si>
+  <si>
+    <t>D17T18: Paper products and printing</t>
+  </si>
+  <si>
+    <t>D19: Coke and refined petroleum products</t>
+  </si>
+  <si>
+    <t>D20T21: Chemicals and pharmaceutical products</t>
+  </si>
+  <si>
+    <t>D22: Rubber and plastic products</t>
+  </si>
+  <si>
+    <t>D23: Other non-metallic mineral products</t>
+  </si>
+  <si>
+    <t>D24: Basic metals</t>
+  </si>
+  <si>
+    <t>D25: Fabricated metal products</t>
+  </si>
+  <si>
+    <t>D26: Computer, electronic and optical products</t>
+  </si>
+  <si>
+    <t>D27: Electrical equipment</t>
+  </si>
+  <si>
+    <t>D28: Machinery and equipment, nec</t>
+  </si>
+  <si>
+    <t>D29: Motor vehicles, trailers and semi-trailers</t>
+  </si>
+  <si>
+    <t>D30: Other transport equipment</t>
+  </si>
+  <si>
+    <t>D31T33: Other manufacturing; repair and installation of machinery and equipment</t>
+  </si>
+  <si>
+    <t>D35T39: Electricity, gas, water supply, sewerage, waste and remediation services</t>
+  </si>
+  <si>
+    <t>D41T43: Construction</t>
+  </si>
+  <si>
+    <t>D45T47: Wholesale and retail trade; repair of motor vehicles</t>
+  </si>
+  <si>
+    <t>D49T53: Transportation and storage</t>
+  </si>
+  <si>
+    <t>D55T56: Accomodation and food services</t>
+  </si>
+  <si>
+    <t>D58T60: Publishing, audiovisual and broadcasting activities</t>
+  </si>
+  <si>
+    <t>D61: Telecommunications</t>
+  </si>
+  <si>
+    <t>D62T63: IT and other information services</t>
+  </si>
+  <si>
+    <t>D64T66: Financial and insurance activities</t>
+  </si>
+  <si>
+    <t>D68: Real estate activities</t>
+  </si>
+  <si>
+    <t>D69T82: Other business sector services</t>
+  </si>
+  <si>
+    <t>D84: Public admin. and defence; compulsory social security</t>
+  </si>
+  <si>
+    <t>D85: Education</t>
+  </si>
+  <si>
+    <t>D86T88: Human health and social work</t>
+  </si>
+  <si>
+    <t>D90T96: Arts, entertainment, recreation and other service activities</t>
+  </si>
+  <si>
+    <t>D97T98: Private households with employed persons</t>
+  </si>
+  <si>
+    <t>From: (sector in row)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LABR: Compensation of employees</t>
+  </si>
+  <si>
+    <t>OTXS: Other taxes less subsidies on production</t>
+  </si>
+  <si>
+    <t>GOPS: Gross operating surplus and mixed income</t>
+  </si>
+  <si>
+    <t>Data extracted on 03 Jun 2020 20:52 UTC (GMT) from OECD.Stat</t>
+  </si>
+  <si>
+    <t>Income tax revenue, USD</t>
+  </si>
+  <si>
+    <t>Income Tax Revenue (crores)</t>
+  </si>
+  <si>
+    <t>https://www.indiabudget.gov.in/budget2016-2017/ub2016-17/rec/tr.pdf</t>
+  </si>
+  <si>
+    <t>Receipt Budget, 2016-2017</t>
+  </si>
+  <si>
+    <t>Share of income taxed</t>
+  </si>
+  <si>
+    <t>Income Tax Revenue</t>
+  </si>
+  <si>
+    <t>OECD</t>
+  </si>
+  <si>
+    <t>Trade in Employment (TiM) 2018 Edition (ISIC Rev. 4)</t>
+  </si>
+  <si>
+    <t>https://stats.oecd.org/Index.aspx?DataSetCode=IOTSI4_2018</t>
+  </si>
+  <si>
+    <t>Variable: VAL</t>
+  </si>
+  <si>
+    <t>Employee Compensation</t>
+  </si>
+  <si>
+    <t>see cpi.xlsx</t>
+  </si>
+  <si>
+    <t>Total Employee Compensation (2019 USD)</t>
+  </si>
+  <si>
+    <t>http://www.inflation.eu/inflation-rates/india/historic-inflation/cpi-inflation-india.aspx</t>
+  </si>
+  <si>
+    <t>2016 to 2012 INR</t>
+  </si>
+  <si>
+    <t>Ruppees per dollar</t>
+  </si>
+  <si>
+    <t>see scaling-factors</t>
+  </si>
+  <si>
+    <t>2015 to 2012 USD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +297,70 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color indexed="18"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color indexed="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,8 +373,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2973BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A1E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D8ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -129,13 +412,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -146,12 +484,72 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="5"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -454,13 +852,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19.06640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -472,7 +873,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -483,87 +884,987 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>12</v>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18">
+        <f>1/1.25565223378368</f>
+        <v>0.79639885399373811</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19">
+        <v>0.9686815713640794</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>2012</v>
+      </c>
+      <c r="B22">
+        <v>54.77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="C18" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:AL12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.3984375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="2.3984375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="24" width="9.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="9.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="9.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="9.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.1328125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="e">
+        <f ca="1">DotStatQuery(B1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="22.9" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="13"/>
+    </row>
+    <row r="4" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="16"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="16"/>
+    </row>
+    <row r="6" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="16"/>
+    </row>
+    <row r="7" spans="1:38" ht="97.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="X7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG7" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ7" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL7" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A8" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="U8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="W8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="X8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL8" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="23">
+        <v>51711.035000000003</v>
+      </c>
+      <c r="D9" s="23">
+        <v>7097.5749999999998</v>
+      </c>
+      <c r="E9" s="23">
+        <v>1872.6089999999999</v>
+      </c>
+      <c r="F9" s="23">
+        <v>4911.6509999999998</v>
+      </c>
+      <c r="G9" s="23">
+        <v>8065.1040000000003</v>
+      </c>
+      <c r="H9" s="23">
+        <v>11673.767</v>
+      </c>
+      <c r="I9" s="23">
+        <v>1418.434</v>
+      </c>
+      <c r="J9" s="23">
+        <v>2184.1729999999998</v>
+      </c>
+      <c r="K9" s="23">
+        <v>7743.027</v>
+      </c>
+      <c r="L9" s="23">
+        <v>12279.773999999999</v>
+      </c>
+      <c r="M9" s="23">
+        <v>3153.924</v>
+      </c>
+      <c r="N9" s="23">
+        <v>4797.2039999999997</v>
+      </c>
+      <c r="O9" s="23">
+        <v>5477.0730000000003</v>
+      </c>
+      <c r="P9" s="23">
+        <v>3737.183</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>1986.0350000000001</v>
+      </c>
+      <c r="R9" s="23">
+        <v>3784.7759999999998</v>
+      </c>
+      <c r="S9" s="23">
+        <v>5009.9120000000003</v>
+      </c>
+      <c r="T9" s="23">
+        <v>13551.85</v>
+      </c>
+      <c r="U9" s="23">
+        <v>7886.7330000000002</v>
+      </c>
+      <c r="V9" s="23">
+        <v>3069.5030000000002</v>
+      </c>
+      <c r="W9" s="23">
+        <v>17751.912</v>
+      </c>
+      <c r="X9" s="23">
+        <v>100199.875</v>
+      </c>
+      <c r="Y9" s="23">
+        <v>31329.510999999999</v>
+      </c>
+      <c r="Z9" s="23">
+        <v>33075.974000000002</v>
+      </c>
+      <c r="AA9" s="23">
+        <v>3027.0430000000001</v>
+      </c>
+      <c r="AB9" s="23">
+        <v>4794.0879999999997</v>
+      </c>
+      <c r="AC9" s="23">
+        <v>7910.0050000000001</v>
+      </c>
+      <c r="AD9" s="23">
+        <v>19660.455000000002</v>
+      </c>
+      <c r="AE9" s="23">
+        <v>34459.480000000003</v>
+      </c>
+      <c r="AF9" s="23">
+        <v>35406.620000000003</v>
+      </c>
+      <c r="AG9" s="23">
+        <v>16517.482</v>
+      </c>
+      <c r="AH9" s="23">
+        <v>92507.683999999994</v>
+      </c>
+      <c r="AI9" s="23">
+        <v>45370.26</v>
+      </c>
+      <c r="AJ9" s="23">
+        <v>18830.098999999998</v>
+      </c>
+      <c r="AK9" s="23">
+        <v>23635.012999999999</v>
+      </c>
+      <c r="AL9" s="23">
+        <v>3498.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="24">
+        <v>7036.0770000000002</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1971.2159999999999</v>
+      </c>
+      <c r="E10" s="24">
+        <v>416.04500000000002</v>
+      </c>
+      <c r="F10" s="24">
+        <v>609.78800000000001</v>
+      </c>
+      <c r="G10" s="24">
+        <v>2035.51</v>
+      </c>
+      <c r="H10" s="24">
+        <v>1242.8810000000001</v>
+      </c>
+      <c r="I10" s="24">
+        <v>173.256</v>
+      </c>
+      <c r="J10" s="24">
+        <v>182.81899999999999</v>
+      </c>
+      <c r="K10" s="24">
+        <v>3526.886</v>
+      </c>
+      <c r="L10" s="24">
+        <v>1265.373</v>
+      </c>
+      <c r="M10" s="24">
+        <v>381.65499999999997</v>
+      </c>
+      <c r="N10" s="24">
+        <v>643.654</v>
+      </c>
+      <c r="O10" s="24">
+        <v>746.54399999999998</v>
+      </c>
+      <c r="P10" s="24">
+        <v>551.63699999999994</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>202.89699999999999</v>
+      </c>
+      <c r="R10" s="24">
+        <v>543.46900000000005</v>
+      </c>
+      <c r="S10" s="24">
+        <v>629.36500000000001</v>
+      </c>
+      <c r="T10" s="24">
+        <v>995.78300000000002</v>
+      </c>
+      <c r="U10" s="24">
+        <v>310.077</v>
+      </c>
+      <c r="V10" s="24">
+        <v>261.15600000000001</v>
+      </c>
+      <c r="W10" s="24">
+        <v>2186.752</v>
+      </c>
+      <c r="X10" s="24">
+        <v>3601.1179999999999</v>
+      </c>
+      <c r="Y10" s="24">
+        <v>7030.1610000000001</v>
+      </c>
+      <c r="Z10" s="24">
+        <v>2167.0500000000002</v>
+      </c>
+      <c r="AA10" s="24">
+        <v>547.61199999999997</v>
+      </c>
+      <c r="AB10" s="24">
+        <v>226.70400000000001</v>
+      </c>
+      <c r="AC10" s="24">
+        <v>815.25699999999995</v>
+      </c>
+      <c r="AD10" s="24">
+        <v>1981.4079999999999</v>
+      </c>
+      <c r="AE10" s="24">
+        <v>4163.6109999999999</v>
+      </c>
+      <c r="AF10" s="24">
+        <v>8626.5360000000001</v>
+      </c>
+      <c r="AG10" s="24">
+        <v>1582.606</v>
+      </c>
+      <c r="AH10" s="24">
+        <v>855.70699999999999</v>
+      </c>
+      <c r="AI10" s="24">
+        <v>1114.4369999999999</v>
+      </c>
+      <c r="AJ10" s="24">
+        <v>411.08499999999998</v>
+      </c>
+      <c r="AK10" s="24">
+        <v>1042.144</v>
+      </c>
+      <c r="AL10" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="23">
+        <v>280209.58799999999</v>
+      </c>
+      <c r="D11" s="23">
+        <v>19026.11</v>
+      </c>
+      <c r="E11" s="23">
+        <v>5123.8459999999995</v>
+      </c>
+      <c r="F11" s="23">
+        <v>4852.9610000000002</v>
+      </c>
+      <c r="G11" s="23">
+        <v>21062.786</v>
+      </c>
+      <c r="H11" s="23">
+        <v>32190.553</v>
+      </c>
+      <c r="I11" s="23">
+        <v>3889.11</v>
+      </c>
+      <c r="J11" s="23">
+        <v>6072.6080000000002</v>
+      </c>
+      <c r="K11" s="23">
+        <v>18648.987000000001</v>
+      </c>
+      <c r="L11" s="23">
+        <v>33903.652999999998</v>
+      </c>
+      <c r="M11" s="23">
+        <v>8651.1209999999992</v>
+      </c>
+      <c r="N11" s="23">
+        <v>13095.441999999999</v>
+      </c>
+      <c r="O11" s="23">
+        <v>14939.683000000001</v>
+      </c>
+      <c r="P11" s="23">
+        <v>10151.58</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>5485.0680000000002</v>
+      </c>
+      <c r="R11" s="23">
+        <v>10296.054</v>
+      </c>
+      <c r="S11" s="23">
+        <v>13718.923000000001</v>
+      </c>
+      <c r="T11" s="23">
+        <v>8761.7669999999998</v>
+      </c>
+      <c r="U11" s="23">
+        <v>3407.69</v>
+      </c>
+      <c r="V11" s="23">
+        <v>8529.84</v>
+      </c>
+      <c r="W11" s="23">
+        <v>31388.135999999999</v>
+      </c>
+      <c r="X11" s="23">
+        <v>47340.707000000002</v>
+      </c>
+      <c r="Y11" s="23">
+        <v>160401.32800000001</v>
+      </c>
+      <c r="Z11" s="23">
+        <v>64212.076000000001</v>
+      </c>
+      <c r="AA11" s="23">
+        <v>15629.545</v>
+      </c>
+      <c r="AB11" s="23">
+        <v>2507.1089999999999</v>
+      </c>
+      <c r="AC11" s="23">
+        <v>17145.738000000001</v>
+      </c>
+      <c r="AD11" s="23">
+        <v>58015.237000000001</v>
+      </c>
+      <c r="AE11" s="23">
+        <v>72148.509000000005</v>
+      </c>
+      <c r="AF11" s="23">
+        <v>99421.744000000006</v>
+      </c>
+      <c r="AG11" s="23">
+        <v>48822.811999999998</v>
+      </c>
+      <c r="AH11" s="23">
+        <v>18076.109</v>
+      </c>
+      <c r="AI11" s="23">
+        <v>24757.803</v>
+      </c>
+      <c r="AJ11" s="23">
+        <v>10326.716</v>
+      </c>
+      <c r="AK11" s="23">
+        <v>12435.643</v>
+      </c>
+      <c r="AL11" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:AL6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:AL3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:AL4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:AL5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A12" r:id="rId2" display="https://stats-3.oecd.org/index.aspx?DatasetCode=IOTSI4_2018"/>
+    <hyperlink ref="C3" r:id="rId3" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;Coords=[VAR].[VAL]&amp;ShowOnWeb=true&amp;Lang=en"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="26.3984375" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="6">
-        <v>559500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>1504586.93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <f>B1/B2</f>
-        <v>0.37186286072550162</v>
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="7">
+        <v>275761.28999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="7">
+        <f>SUM('OECD VAL'!C9:AL9)*1000000*About!B19</f>
+        <v>629047420741.72754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:3" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="26">
+        <f>C1*10000000*About!B18/About!B22</f>
+        <v>40097859290.092178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="28">
+        <f>C5/(SUM('OECD VAL'!C9:AL9)*1000000)</f>
+        <v>6.1747423270033408E-2</v>
       </c>
     </row>
   </sheetData>
@@ -571,7 +1872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
@@ -579,7 +1880,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -597,8 +1898,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>'India Budget'!B4</f>
-        <v>0.37186286072550162</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
